--- a/src/__tests__/sample_xlsx/sample.xlsx
+++ b/src/__tests__/sample_xlsx/sample.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16680" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="width_height" sheetId="1" r:id="rId1"/>
     <sheet name="empty" sheetId="2" r:id="rId2"/>
+    <sheet name="single" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -34,9 +35,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -48,7 +49,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -56,6 +102,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -64,6 +117,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -72,13 +132,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,8 +148,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,94 +185,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -201,19 +202,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,31 +256,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,127 +334,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,6 +393,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,39 +450,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -475,15 +467,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -492,150 +475,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,8 +971,8 @@
   <sheetPr/>
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1021,7 +1022,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -1030,4 +1031,26 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/__tests__/sample_xlsx/sample.xlsx
+++ b/src/__tests__/sample_xlsx/sample.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13080"/>
+    <workbookView windowWidth="28000" windowHeight="12200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="width_height" sheetId="1" r:id="rId1"/>
     <sheet name="empty" sheetId="2" r:id="rId2"/>
     <sheet name="single" sheetId="3" r:id="rId3"/>
+    <sheet name="scan" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>single</t>
   </si>
@@ -28,6 +29,36 @@
   </si>
   <si>
     <t>both width and height are 2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -36,9 +67,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,8 +80,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,135 +223,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -202,43 +233,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,43 +389,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,79 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +437,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -416,6 +462,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,43 +496,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,9 +516,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,148 +529,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -668,39 +699,39 @@
     <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
     <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
-    <cellStyle name="Bad" xfId="22" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
-    <cellStyle name="Total" xfId="24" builtinId="25"/>
-    <cellStyle name="Output" xfId="25" builtinId="21"/>
-    <cellStyle name="Currency" xfId="26" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
-    <cellStyle name="Note" xfId="28" builtinId="10"/>
-    <cellStyle name="Input" xfId="29" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
-    <cellStyle name="Good" xfId="32" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="Title" xfId="38" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
-    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
-    <cellStyle name="Link" xfId="43" builtinId="8"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -971,8 +1002,8 @@
   <sheetPr/>
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1023,7 +1054,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1053,4 +1084,97 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>